--- a/xlsx-some-file/buick-engine.xlsx
+++ b/xlsx-some-file/buick-engine.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3529" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3529" uniqueCount="258">
   <si>
     <t>Make Name</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Discount Price 1</t>
   </si>
   <si>
-    <t>Mile_1</t>
+    <t>Miles_1</t>
   </si>
   <si>
     <t xml:space="preserve">Actual Price 2 </t>
@@ -490,9 +490,6 @@
   </si>
   <si>
     <t>MT</t>
-  </si>
-  <si>
-    <t>Miles_1</t>
   </si>
   <si>
     <t>Engine</t>
@@ -2069,7 +2066,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -15036,7 +15033,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>11</v>
@@ -15056,17 +15053,17 @@
         <v>2005</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I2" s="8">
         <v>1350</v>
@@ -15075,7 +15072,7 @@
         <v>1250</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L2" s="8">
         <v>1250</v>
@@ -15095,17 +15092,17 @@
         <v>2005</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I3" s="8">
         <v>1450</v>
@@ -15114,7 +15111,7 @@
         <v>1380</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L3" s="8">
         <v>1450</v>
@@ -15134,17 +15131,17 @@
         <v>2006</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I4" s="8">
         <v>1450</v>
@@ -15153,7 +15150,7 @@
         <v>1380</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L4" s="8">
         <v>1450</v>
@@ -15173,17 +15170,17 @@
         <v>2006</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I5" s="8">
         <v>1350</v>
@@ -15192,7 +15189,7 @@
         <v>1250</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L5" s="8">
         <v>1250</v>
@@ -15212,17 +15209,17 @@
         <v>2007</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I6" s="8">
         <v>3650</v>
@@ -15231,7 +15228,7 @@
         <v>3310</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L6" s="8">
         <v>2450</v>
@@ -15251,17 +15248,17 @@
         <v>2007</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I7" s="8">
         <v>3650</v>
@@ -15270,7 +15267,7 @@
         <v>3410</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L7" s="8">
         <v>2650</v>
@@ -15290,17 +15287,17 @@
         <v>2007</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I8" s="8">
         <v>1350</v>
@@ -15309,7 +15306,7 @@
         <v>1250</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L8" s="8">
         <v>1250</v>
@@ -15329,17 +15326,17 @@
         <v>2008</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I9" s="8">
         <v>1350</v>
@@ -15348,7 +15345,7 @@
         <v>1250</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L9" s="8">
         <v>1250</v>
@@ -15368,17 +15365,17 @@
         <v>2008</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I10" s="8">
         <v>3650</v>
@@ -15387,7 +15384,7 @@
         <v>3310</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L10" s="8">
         <v>2450</v>
@@ -15407,17 +15404,17 @@
         <v>2008</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I11" s="8">
         <v>2650</v>
@@ -15426,7 +15423,7 @@
         <v>2450</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L11" s="8">
         <v>2450</v>
@@ -15446,17 +15443,17 @@
         <v>2009</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I12" s="8">
         <v>1350</v>
@@ -15465,7 +15462,7 @@
         <v>1250</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L12" s="8">
         <v>1250</v>
@@ -15485,17 +15482,17 @@
         <v>2009</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I13" s="8">
         <v>2650</v>
@@ -15504,7 +15501,7 @@
         <v>2450</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L13" s="8">
         <v>2450</v>
@@ -15524,17 +15521,17 @@
         <v>2010</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I14" s="8">
         <v>3350</v>
@@ -15543,7 +15540,7 @@
         <v>3240</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L14" s="8">
         <v>3250</v>
@@ -15563,17 +15560,17 @@
         <v>2010</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I15" s="8">
         <v>3250</v>
@@ -15582,7 +15579,7 @@
         <v>2980</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L15" s="8">
         <v>2950</v>
@@ -15602,17 +15599,17 @@
         <v>2010</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I16" s="8">
         <v>4250</v>
@@ -15621,7 +15618,7 @@
         <v>4000</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L16" s="8">
         <v>4000</v>
@@ -15641,17 +15638,17 @@
         <v>2016</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I17" s="8">
         <v>3100</v>
@@ -15660,7 +15657,7 @@
         <v>2980</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L17" s="8">
         <v>2850</v>
@@ -15680,17 +15677,17 @@
         <v>2017</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I18" s="8">
         <v>3250</v>
@@ -15699,7 +15696,7 @@
         <v>2980</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L18" s="8">
         <v>2950</v>
@@ -15732,17 +15729,17 @@
         <v>2018</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I19" s="8">
         <v>3250</v>
@@ -15751,7 +15748,7 @@
         <v>2980</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L19" s="8">
         <v>2950</v>
@@ -15771,17 +15768,17 @@
         <v>1995</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I20" s="8">
         <v>1350</v>
@@ -15790,7 +15787,7 @@
         <v>1250</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L20" s="8">
         <v>1250</v>
@@ -15810,17 +15807,17 @@
         <v>1995</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I21" s="8">
         <v>1350</v>
@@ -15829,7 +15826,7 @@
         <v>1250</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L21" s="8">
         <v>1250</v>
@@ -15849,17 +15846,17 @@
         <v>1996</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I22" s="8">
         <v>1350</v>
@@ -15868,7 +15865,7 @@
         <v>1250</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L22" s="8">
         <v>1250</v>
@@ -15888,17 +15885,17 @@
         <v>1996</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I23" s="8">
         <v>1650</v>
@@ -15907,7 +15904,7 @@
         <v>1450</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L23" s="8">
         <v>1450</v>
@@ -15927,17 +15924,17 @@
         <v>1997</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I24" s="8">
         <v>1350</v>
@@ -15946,7 +15943,7 @@
         <v>1250</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L24" s="8">
         <v>1250</v>
@@ -15966,17 +15963,17 @@
         <v>1998</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I25" s="8">
         <v>1350</v>
@@ -15985,7 +15982,7 @@
         <v>1250</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L25" s="8">
         <v>1250</v>
@@ -16005,17 +16002,17 @@
         <v>1999</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I26" s="8">
         <v>1350</v>
@@ -16024,7 +16021,7 @@
         <v>1250</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L26" s="8">
         <v>1250</v>
@@ -16044,17 +16041,17 @@
         <v>2000</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I27" s="8">
         <v>1350</v>
@@ -16063,7 +16060,7 @@
         <v>1250</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L27" s="8">
         <v>1250</v>
@@ -16083,17 +16080,17 @@
         <v>2000</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I28" s="8">
         <v>1350</v>
@@ -16102,7 +16099,7 @@
         <v>1250</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L28" s="8">
         <v>1250</v>
@@ -16122,17 +16119,17 @@
         <v>2001</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I29" s="8">
         <v>1350</v>
@@ -16141,7 +16138,7 @@
         <v>1250</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L29" s="8">
         <v>1250</v>
@@ -16161,17 +16158,17 @@
         <v>2002</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I30" s="8">
         <v>1350</v>
@@ -16180,7 +16177,7 @@
         <v>1250</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L30" s="8">
         <v>1250</v>
@@ -16200,17 +16197,17 @@
         <v>2003</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I31" s="8">
         <v>1350</v>
@@ -16219,7 +16216,7 @@
         <v>1250</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L31" s="8">
         <v>1250</v>
@@ -16239,17 +16236,17 @@
         <v>2003</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I32" s="8">
         <v>1350</v>
@@ -16258,7 +16255,7 @@
         <v>1250</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L32" s="8">
         <v>1250</v>
@@ -16278,17 +16275,17 @@
         <v>2004</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I33" s="8">
         <v>1350</v>
@@ -16297,7 +16294,7 @@
         <v>1250</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L33" s="8">
         <v>1250</v>
@@ -16317,17 +16314,17 @@
         <v>2005</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I34" s="8">
         <v>1350</v>
@@ -16336,7 +16333,7 @@
         <v>1250</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L34" s="8">
         <v>1250</v>
@@ -16356,17 +16353,17 @@
         <v>2008</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I35" s="11">
         <v>2850</v>
@@ -16375,7 +16372,7 @@
         <v>2660</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L35" s="11">
         <v>2650</v>
@@ -16408,17 +16405,17 @@
         <v>2009</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I36" s="8">
         <v>3850</v>
@@ -16427,7 +16424,7 @@
         <v>3370</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L36" s="8">
         <v>3100</v>
@@ -16447,17 +16444,17 @@
         <v>2010</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I37" s="8">
         <v>3950</v>
@@ -16466,7 +16463,7 @@
         <v>3850</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L37" s="8">
         <v>3850</v>
@@ -16486,17 +16483,17 @@
         <v>2011</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I38" s="8">
         <v>3950</v>
@@ -16505,7 +16502,7 @@
         <v>3850</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L38" s="8">
         <v>3850</v>
@@ -16525,17 +16522,17 @@
         <v>2012</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I39" s="8">
         <v>4100</v>
@@ -16544,7 +16541,7 @@
         <v>3950</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L39" s="8">
         <v>3950</v>
@@ -16564,17 +16561,17 @@
         <v>2013</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I40" s="8">
         <v>3100</v>
@@ -16583,7 +16580,7 @@
         <v>3050</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L40" s="8">
         <v>3150</v>
@@ -16603,17 +16600,17 @@
         <v>2014</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I41" s="8">
         <v>3100</v>
@@ -16622,7 +16619,7 @@
         <v>3050</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L41" s="8">
         <v>3150</v>
@@ -16642,17 +16639,17 @@
         <v>2015</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I42" s="8">
         <v>3100</v>
@@ -16661,7 +16658,7 @@
         <v>3050</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L42" s="8">
         <v>3150</v>
@@ -16681,17 +16678,17 @@
         <v>2016</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I43" s="8">
         <v>3100</v>
@@ -16700,7 +16697,7 @@
         <v>3050</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L43" s="8">
         <v>3150</v>
@@ -16720,17 +16717,17 @@
         <v>2017</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I44" s="8">
         <v>3100</v>
@@ -16739,7 +16736,7 @@
         <v>3050</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L44" s="8">
         <v>3150</v>
@@ -16759,17 +16756,17 @@
         <v>2018</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I45" s="8">
         <v>3100</v>
@@ -16778,7 +16775,7 @@
         <v>3050</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L45" s="8">
         <v>3150</v>
@@ -16798,17 +16795,17 @@
         <v>2013</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I46" s="8">
         <v>2950</v>
@@ -16817,7 +16814,7 @@
         <v>2850</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L46" s="8">
         <v>2980</v>
@@ -16837,17 +16834,17 @@
         <v>2014</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I47" s="8">
         <v>2950</v>
@@ -16856,7 +16853,7 @@
         <v>2850</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L47" s="8">
         <v>2980</v>
@@ -16876,17 +16873,17 @@
         <v>2015</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I48" s="8">
         <v>2950</v>
@@ -16895,7 +16892,7 @@
         <v>2850</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L48" s="8">
         <v>2980</v>
@@ -16915,17 +16912,17 @@
         <v>2016</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I49" s="8">
         <v>2650</v>
@@ -16934,7 +16931,7 @@
         <v>2400</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L49" s="8">
         <v>2350</v>
@@ -16954,17 +16951,17 @@
         <v>2016</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I50" s="8">
         <v>1650</v>
@@ -16973,7 +16970,7 @@
         <v>1450</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L50" s="8">
         <v>1650</v>
@@ -16993,17 +16990,17 @@
         <v>2017</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I51" s="11">
         <v>2450</v>
@@ -17012,7 +17009,7 @@
         <v>2200</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L51" s="11">
         <v>2350</v>
@@ -17045,17 +17042,17 @@
         <v>2017</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I52" s="8">
         <v>1650</v>
@@ -17064,7 +17061,7 @@
         <v>1450</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L52" s="8">
         <v>1650</v>
@@ -17084,17 +17081,17 @@
         <v>2018</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I53" s="8">
         <v>2350</v>
@@ -17103,7 +17100,7 @@
         <v>2200</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L53" s="8">
         <v>2150</v>
@@ -17123,17 +17120,17 @@
         <v>2018</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I54" s="8">
         <v>1650</v>
@@ -17142,7 +17139,7 @@
         <v>1450</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L54" s="8">
         <v>1650</v>
@@ -17162,17 +17159,17 @@
         <v>2019</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I55" s="8">
         <v>2350</v>
@@ -17181,7 +17178,7 @@
         <v>2200</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L55" s="8">
         <v>2150</v>
@@ -17201,17 +17198,17 @@
         <v>2019</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I56" s="8">
         <v>1750</v>
@@ -17220,7 +17217,7 @@
         <v>1530</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L56" s="8">
         <v>1450</v>
@@ -17240,17 +17237,17 @@
         <v>2016</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I57" s="8">
         <v>2350</v>
@@ -17259,7 +17256,7 @@
         <v>2250</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L57" s="8">
         <v>2450</v>
@@ -17279,17 +17276,17 @@
         <v>2017</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I58" s="8">
         <v>2550</v>
@@ -17298,7 +17295,7 @@
         <v>2350</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L58" s="8">
         <v>2350</v>
@@ -17318,17 +17315,17 @@
         <v>2017</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I59" s="8">
         <v>1850</v>
@@ -17337,7 +17334,7 @@
         <v>1680</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L59" s="8">
         <v>1750</v>
@@ -17357,17 +17354,17 @@
         <v>2017</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I60" s="8">
         <v>1750</v>
@@ -17376,7 +17373,7 @@
         <v>1580</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L60" s="8">
         <v>1650</v>
@@ -17396,17 +17393,17 @@
         <v>2018</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I61" s="8">
         <v>2550</v>
@@ -17415,7 +17412,7 @@
         <v>2350</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L61" s="8">
         <v>2350</v>
@@ -17435,17 +17432,17 @@
         <v>2018</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I62" s="8">
         <v>1850</v>
@@ -17454,7 +17451,7 @@
         <v>1700</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L62" s="8">
         <v>1850</v>
@@ -17474,17 +17471,17 @@
         <v>2018</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I63" s="8">
         <v>1750</v>
@@ -17493,7 +17490,7 @@
         <v>1450</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L63" s="8">
         <v>1650</v>
@@ -17513,17 +17510,17 @@
         <v>2005</v>
       </c>
       <c r="D64" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I64" s="8">
         <v>1750</v>
@@ -17532,7 +17529,7 @@
         <v>1450</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L64" s="8">
         <v>1650</v>
@@ -17552,17 +17549,17 @@
         <v>2005</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G65" s="6"/>
       <c r="H65" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I65" s="11">
         <v>1650</v>
@@ -17571,7 +17568,7 @@
         <v>1530</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L65" s="11">
         <v>1650</v>
@@ -17604,17 +17601,17 @@
         <v>2006</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I66" s="8">
         <v>1650</v>
@@ -17623,7 +17620,7 @@
         <v>1480</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L66" s="8">
         <v>1650</v>
@@ -17643,17 +17640,17 @@
         <v>2006</v>
       </c>
       <c r="D67" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I67" s="8">
         <v>1650</v>
@@ -17662,7 +17659,7 @@
         <v>1480</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L67" s="8">
         <v>1650</v>
@@ -17682,17 +17679,17 @@
         <v>2007</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I68" s="8">
         <v>3450</v>
@@ -17701,7 +17698,7 @@
         <v>3310</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L68" s="8">
         <v>2350</v>
@@ -17721,17 +17718,17 @@
         <v>2007</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I69" s="8">
         <v>3750</v>
@@ -17740,7 +17737,7 @@
         <v>3410</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L69" s="8">
         <v>2650</v>
@@ -17760,17 +17757,17 @@
         <v>2007</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G70" s="5"/>
       <c r="H70" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I70" s="8">
         <v>1650</v>
@@ -17779,7 +17776,7 @@
         <v>1480</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L70" s="8">
         <v>1650</v>
@@ -17799,17 +17796,17 @@
         <v>2008</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I71" s="8">
         <v>1650</v>
@@ -17818,7 +17815,7 @@
         <v>1480</v>
       </c>
       <c r="K71" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L71" s="8">
         <v>1650</v>
@@ -17838,17 +17835,17 @@
         <v>2008</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G72" s="7"/>
       <c r="H72" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I72" s="8">
         <v>3450</v>
@@ -17857,7 +17854,7 @@
         <v>3310</v>
       </c>
       <c r="K72" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L72" s="8">
         <v>2650</v>
@@ -17877,17 +17874,17 @@
         <v>2008</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F73" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G73" s="14"/>
       <c r="H73" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I73" s="15">
         <v>2650</v>
@@ -17896,7 +17893,7 @@
         <v>2450</v>
       </c>
       <c r="K73" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L73" s="15">
         <v>2350</v>
@@ -17929,17 +17926,17 @@
         <v>2009</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I74" s="8">
         <v>1650</v>
@@ -17948,7 +17945,7 @@
         <v>1480</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L74" s="8">
         <v>1650</v>
@@ -17968,17 +17965,17 @@
         <v>2009</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F75" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G75" s="14"/>
       <c r="H75" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I75" s="15">
         <v>2650</v>
@@ -17987,7 +17984,7 @@
         <v>2450</v>
       </c>
       <c r="K75" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L75" s="15">
         <v>2350</v>
@@ -18020,17 +18017,17 @@
         <v>2010</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F76" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I76" s="8">
         <v>3350</v>
@@ -18039,7 +18036,7 @@
         <v>3250</v>
       </c>
       <c r="K76" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L76" s="8">
         <v>3650</v>
@@ -18059,17 +18056,17 @@
         <v>2010</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F77" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I77" s="8">
         <v>3250</v>
@@ -18078,7 +18075,7 @@
         <v>3000</v>
       </c>
       <c r="K77" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L77" s="8">
         <v>2950</v>
@@ -18098,17 +18095,17 @@
         <v>2010</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F78" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G78" s="13"/>
       <c r="H78" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I78" s="15">
         <v>4150</v>
@@ -18117,7 +18114,7 @@
         <v>3950</v>
       </c>
       <c r="K78" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L78" s="15">
         <v>3950</v>
@@ -18150,17 +18147,17 @@
         <v>2011</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F79" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I79" s="8">
         <v>4150</v>
@@ -18169,7 +18166,7 @@
         <v>3900</v>
       </c>
       <c r="K79" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L79" s="8">
         <v>3750</v>
@@ -18189,17 +18186,17 @@
         <v>2011</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F80" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G80" s="5"/>
       <c r="H80" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I80" s="8">
         <v>4750</v>
@@ -18208,7 +18205,7 @@
         <v>4410</v>
       </c>
       <c r="K80" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L80" s="8">
         <v>4150</v>
@@ -18228,17 +18225,17 @@
         <v>2011</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F81" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I81" s="8">
         <v>5750</v>
@@ -18247,7 +18244,7 @@
         <v>5600</v>
       </c>
       <c r="K81" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L81" s="8">
         <v>4350</v>
@@ -18267,17 +18264,17 @@
         <v>2011</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F82" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G82" s="13"/>
       <c r="H82" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I82" s="15">
         <v>5750</v>
@@ -18286,7 +18283,7 @@
         <v>5600</v>
       </c>
       <c r="K82" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L82" s="15">
         <v>4350</v>
@@ -18319,17 +18316,17 @@
         <v>2012</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F83" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I83" s="8">
         <v>3850</v>
@@ -18338,7 +18335,7 @@
         <v>3650</v>
       </c>
       <c r="K83" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L83" s="8">
         <v>3350</v>
@@ -18358,17 +18355,17 @@
         <v>2012</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F84" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G84" s="5"/>
       <c r="H84" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I84" s="8">
         <v>2650</v>
@@ -18377,7 +18374,7 @@
         <v>2400</v>
       </c>
       <c r="K84" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L84" s="8">
         <v>2350</v>
@@ -18397,17 +18394,17 @@
         <v>2012</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F85" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I85" s="8">
         <v>3850</v>
@@ -18416,7 +18413,7 @@
         <v>3650</v>
       </c>
       <c r="K85" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L85" s="8">
         <v>3350</v>
@@ -18436,17 +18433,17 @@
         <v>2012</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F86" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G86" s="13"/>
       <c r="H86" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I86" s="15">
         <v>3850</v>
@@ -18455,7 +18452,7 @@
         <v>3650</v>
       </c>
       <c r="K86" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L86" s="15">
         <v>3350</v>
@@ -18488,17 +18485,17 @@
         <v>2012</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F87" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G87" s="13"/>
       <c r="H87" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I87" s="15">
         <v>3850</v>
@@ -18507,7 +18504,7 @@
         <v>3650</v>
       </c>
       <c r="K87" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L87" s="15">
         <v>3350</v>
@@ -18527,17 +18524,17 @@
         <v>2013</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F88" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G88" s="13"/>
       <c r="H88" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I88" s="15">
         <v>3850</v>
@@ -18546,7 +18543,7 @@
         <v>3650</v>
       </c>
       <c r="K88" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L88" s="15">
         <v>3350</v>
@@ -18566,17 +18563,17 @@
         <v>2013</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F89" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G89" s="13"/>
       <c r="H89" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I89" s="15">
         <v>3850</v>
@@ -18585,7 +18582,7 @@
         <v>3650</v>
       </c>
       <c r="K89" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L89" s="15">
         <v>3350</v>
@@ -18618,17 +18615,17 @@
         <v>2013</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F90" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G90" s="13"/>
       <c r="H90" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I90" s="15">
         <v>3850</v>
@@ -18637,7 +18634,7 @@
         <v>3650</v>
       </c>
       <c r="K90" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L90" s="15">
         <v>3350</v>
@@ -18657,17 +18654,17 @@
         <v>2013</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F91" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G91" s="5"/>
       <c r="H91" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I91" s="8">
         <v>1850</v>
@@ -18676,7 +18673,7 @@
         <v>1650</v>
       </c>
       <c r="K91" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L91" s="8">
         <v>1650</v>
@@ -18696,17 +18693,17 @@
         <v>2013</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F92" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G92" s="5"/>
       <c r="H92" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I92" s="8">
         <v>1850</v>
@@ -18715,7 +18712,7 @@
         <v>1650</v>
       </c>
       <c r="K92" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L92" s="8">
         <v>1650</v>
@@ -18735,17 +18732,17 @@
         <v>2013</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F93" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G93" s="5"/>
       <c r="H93" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I93" s="8">
         <v>1850</v>
@@ -18754,7 +18751,7 @@
         <v>1650</v>
       </c>
       <c r="K93" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L93" s="8">
         <v>1650</v>
@@ -18774,17 +18771,17 @@
         <v>2014</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F94" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G94" s="13"/>
       <c r="H94" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I94" s="15">
         <v>3850</v>
@@ -18793,7 +18790,7 @@
         <v>3650</v>
       </c>
       <c r="K94" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L94" s="15">
         <v>3350</v>
@@ -18813,17 +18810,17 @@
         <v>2014</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F95" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G95" s="13"/>
       <c r="H95" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I95" s="15">
         <v>3850</v>
@@ -18832,7 +18829,7 @@
         <v>3650</v>
       </c>
       <c r="K95" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L95" s="15">
         <v>3350</v>
@@ -18865,17 +18862,17 @@
         <v>2014</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F96" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G96" s="13"/>
       <c r="H96" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I96" s="15">
         <v>3850</v>
@@ -18884,7 +18881,7 @@
         <v>3650</v>
       </c>
       <c r="K96" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L96" s="15">
         <v>3350</v>
@@ -18904,17 +18901,17 @@
         <v>2014</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F97" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G97" s="5"/>
       <c r="H97" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I97" s="8">
         <v>1850</v>
@@ -18923,7 +18920,7 @@
         <v>1650</v>
       </c>
       <c r="K97" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L97" s="8">
         <v>1650</v>
@@ -18943,17 +18940,17 @@
         <v>2014</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F98" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G98" s="5"/>
       <c r="H98" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I98" s="8">
         <v>1850</v>
@@ -18962,7 +18959,7 @@
         <v>1650</v>
       </c>
       <c r="K98" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L98" s="8">
         <v>1650</v>
@@ -18982,17 +18979,17 @@
         <v>2014</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F99" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G99" s="5"/>
       <c r="H99" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I99" s="8">
         <v>1850</v>
@@ -19001,7 +18998,7 @@
         <v>1650</v>
       </c>
       <c r="K99" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L99" s="8">
         <v>1650</v>
@@ -19034,17 +19031,17 @@
         <v>2015</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F100" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G100" s="13"/>
       <c r="H100" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I100" s="15">
         <v>3850</v>
@@ -19053,7 +19050,7 @@
         <v>3650</v>
       </c>
       <c r="K100" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L100" s="15">
         <v>3350</v>
@@ -19073,17 +19070,17 @@
         <v>2015</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F101" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G101" s="13"/>
       <c r="H101" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I101" s="15">
         <v>3850</v>
@@ -19092,7 +19089,7 @@
         <v>3650</v>
       </c>
       <c r="K101" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L101" s="15">
         <v>3350</v>
@@ -19125,17 +19122,17 @@
         <v>2015</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F102" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G102" s="13"/>
       <c r="H102" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I102" s="15">
         <v>3850</v>
@@ -19144,7 +19141,7 @@
         <v>3650</v>
       </c>
       <c r="K102" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L102" s="15">
         <v>3350</v>
@@ -19164,17 +19161,17 @@
         <v>2015</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F103" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G103" s="5"/>
       <c r="H103" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I103" s="8">
         <v>2650</v>
@@ -19183,7 +19180,7 @@
         <v>2400</v>
       </c>
       <c r="K103" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L103" s="8">
         <v>2350</v>
@@ -19203,17 +19200,17 @@
         <v>2016</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F104" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G104" s="5"/>
       <c r="H104" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I104" s="8">
         <v>2650</v>
@@ -19222,7 +19219,7 @@
         <v>2400</v>
       </c>
       <c r="K104" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L104" s="8">
         <v>2350</v>
@@ -19242,17 +19239,17 @@
         <v>2016</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F105" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G105" s="13"/>
       <c r="H105" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I105" s="15">
         <v>3850</v>
@@ -19261,7 +19258,7 @@
         <v>3650</v>
       </c>
       <c r="K105" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L105" s="15">
         <v>3350</v>
@@ -19281,17 +19278,17 @@
         <v>2017</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F106" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G106" s="5"/>
       <c r="H106" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I106" s="8">
         <v>2650</v>
@@ -19300,7 +19297,7 @@
         <v>2400</v>
       </c>
       <c r="K106" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L106" s="8">
         <v>2350</v>
@@ -19320,17 +19317,17 @@
         <v>2018</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F107" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G107" s="13"/>
       <c r="H107" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I107" s="15">
         <v>3850</v>
@@ -19339,7 +19336,7 @@
         <v>3650</v>
       </c>
       <c r="K107" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L107" s="15">
         <v>3350</v>
@@ -19359,17 +19356,17 @@
         <v>2018</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F108" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G108" s="5"/>
       <c r="H108" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I108" s="8">
         <v>2650</v>
@@ -19378,7 +19375,7 @@
         <v>2400</v>
       </c>
       <c r="K108" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L108" s="8">
         <v>2350</v>
@@ -19398,17 +19395,17 @@
         <v>2019</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F109" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G109" s="13"/>
       <c r="H109" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I109" s="15">
         <v>3850</v>
@@ -19417,7 +19414,7 @@
         <v>3650</v>
       </c>
       <c r="K109" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L109" s="15">
         <v>3350</v>
@@ -19437,17 +19434,17 @@
         <v>2019</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F110" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G110" s="5"/>
       <c r="H110" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I110" s="8">
         <v>2650</v>
@@ -19456,7 +19453,7 @@
         <v>2400</v>
       </c>
       <c r="K110" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L110" s="8">
         <v>2350</v>
@@ -19476,17 +19473,17 @@
         <v>1995</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G111" s="5"/>
       <c r="H111" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I111" s="8">
         <v>1350</v>
@@ -19495,7 +19492,7 @@
         <v>1250</v>
       </c>
       <c r="K111" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L111" s="8">
         <v>1250</v>
@@ -19515,17 +19512,17 @@
         <v>1996</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G112" s="5"/>
       <c r="H112" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I112" s="8">
         <v>1350</v>
@@ -19534,7 +19531,7 @@
         <v>1250</v>
       </c>
       <c r="K112" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L112" s="8">
         <v>1250</v>
@@ -19554,17 +19551,17 @@
         <v>1997</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G113" s="5"/>
       <c r="H113" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I113" s="8">
         <v>1350</v>
@@ -19573,7 +19570,7 @@
         <v>1250</v>
       </c>
       <c r="K113" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L113" s="8">
         <v>1250</v>
@@ -19593,17 +19590,17 @@
         <v>1998</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G114" s="5"/>
       <c r="H114" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I114" s="8">
         <v>1350</v>
@@ -19612,7 +19609,7 @@
         <v>1250</v>
       </c>
       <c r="K114" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L114" s="8">
         <v>1250</v>
@@ -19632,17 +19629,17 @@
         <v>1999</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G115" s="5"/>
       <c r="H115" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I115" s="8">
         <v>1350</v>
@@ -19651,7 +19648,7 @@
         <v>1250</v>
       </c>
       <c r="K115" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L115" s="8">
         <v>1250</v>
@@ -19671,17 +19668,17 @@
         <v>2000</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G116" s="5"/>
       <c r="H116" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I116" s="8">
         <v>1350</v>
@@ -19690,7 +19687,7 @@
         <v>1250</v>
       </c>
       <c r="K116" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L116" s="8">
         <v>1250</v>
@@ -19723,17 +19720,17 @@
         <v>2001</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G117" s="5"/>
       <c r="H117" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I117" s="8">
         <v>1350</v>
@@ -19742,7 +19739,7 @@
         <v>1250</v>
       </c>
       <c r="K117" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L117" s="8">
         <v>1250</v>
@@ -19762,17 +19759,17 @@
         <v>2002</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G118" s="5"/>
       <c r="H118" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I118" s="8">
         <v>1350</v>
@@ -19781,7 +19778,7 @@
         <v>1250</v>
       </c>
       <c r="K118" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L118" s="8">
         <v>1250</v>
@@ -19801,17 +19798,17 @@
         <v>2003</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G119" s="5"/>
       <c r="H119" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I119" s="8">
         <v>1350</v>
@@ -19820,7 +19817,7 @@
         <v>1250</v>
       </c>
       <c r="K119" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L119" s="8">
         <v>1250</v>
@@ -19840,17 +19837,17 @@
         <v>2004</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G120" s="5"/>
       <c r="H120" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I120" s="8">
         <v>1350</v>
@@ -19859,7 +19856,7 @@
         <v>1250</v>
       </c>
       <c r="K120" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L120" s="8">
         <v>1250</v>
@@ -19879,17 +19876,17 @@
         <v>2005</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G121" s="5"/>
       <c r="H121" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I121" s="8">
         <v>1350</v>
@@ -19898,7 +19895,7 @@
         <v>1250</v>
       </c>
       <c r="K121" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L121" s="8">
         <v>1250</v>
@@ -19918,17 +19915,17 @@
         <v>2006</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G122" s="5"/>
       <c r="H122" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I122" s="8">
         <v>1750</v>
@@ -19937,7 +19934,7 @@
         <v>1650</v>
       </c>
       <c r="K122" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L122" s="8">
         <v>1250</v>
@@ -19957,17 +19954,17 @@
         <v>2006</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G123" s="5"/>
       <c r="H123" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I123" s="8">
         <v>1350</v>
@@ -19976,7 +19973,7 @@
         <v>1250</v>
       </c>
       <c r="K123" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L123" s="8">
         <v>1250</v>
@@ -19996,17 +19993,17 @@
         <v>2007</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G124" s="5"/>
       <c r="H124" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I124" s="8">
         <v>1750</v>
@@ -20015,7 +20012,7 @@
         <v>1650</v>
       </c>
       <c r="K124" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L124" s="8">
         <v>1250</v>
@@ -20035,17 +20032,17 @@
         <v>2007</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G125" s="5"/>
       <c r="H125" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I125" s="8">
         <v>1350</v>
@@ -20054,7 +20051,7 @@
         <v>1250</v>
       </c>
       <c r="K125" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L125" s="8">
         <v>1250</v>
@@ -20074,17 +20071,17 @@
         <v>2008</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G126" s="5"/>
       <c r="H126" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I126" s="8">
         <v>1350</v>
@@ -20093,7 +20090,7 @@
         <v>1250</v>
       </c>
       <c r="K126" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L126" s="8">
         <v>1250</v>
@@ -20113,17 +20110,17 @@
         <v>2008</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G127" s="7"/>
       <c r="H127" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I127" s="8">
         <v>2850</v>
@@ -20132,7 +20129,7 @@
         <v>2610</v>
       </c>
       <c r="K127" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L127" s="8">
         <v>2450</v>
@@ -20152,17 +20149,17 @@
         <v>2008</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F128" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G128" s="5"/>
       <c r="H128" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I128" s="8">
         <v>1750</v>
@@ -20171,7 +20168,7 @@
         <v>1650</v>
       </c>
       <c r="K128" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L128" s="8">
         <v>1250</v>
@@ -20191,17 +20188,17 @@
         <v>2009</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F129" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G129" s="5"/>
       <c r="H129" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I129" s="8">
         <v>2650</v>
@@ -20210,7 +20207,7 @@
         <v>2400</v>
       </c>
       <c r="K129" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L129" s="8">
         <v>2350</v>
@@ -20230,17 +20227,17 @@
         <v>2009</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F130" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G130" s="5"/>
       <c r="H130" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I130" s="8">
         <v>2650</v>
@@ -20249,7 +20246,7 @@
         <v>2400</v>
       </c>
       <c r="K130" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L130" s="8">
         <v>2350</v>
@@ -20269,17 +20266,17 @@
         <v>2009</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G131" s="5"/>
       <c r="H131" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I131" s="8">
         <v>1750</v>
@@ -20288,7 +20285,7 @@
         <v>1650</v>
       </c>
       <c r="K131" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L131" s="8">
         <v>1250</v>
@@ -20308,17 +20305,17 @@
         <v>2009</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G132" s="5"/>
       <c r="H132" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I132" s="8">
         <v>1750</v>
@@ -20327,7 +20324,7 @@
         <v>1650</v>
       </c>
       <c r="K132" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L132" s="8">
         <v>1250</v>
@@ -20347,17 +20344,17 @@
         <v>2010</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G133" s="5"/>
       <c r="H133" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I133" s="8">
         <v>1750</v>
@@ -20366,7 +20363,7 @@
         <v>1650</v>
       </c>
       <c r="K133" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L133" s="8">
         <v>1250</v>
@@ -20399,17 +20396,17 @@
         <v>2010</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G134" s="5"/>
       <c r="H134" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I134" s="8">
         <v>1750</v>
@@ -20418,7 +20415,7 @@
         <v>1650</v>
       </c>
       <c r="K134" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L134" s="8">
         <v>1250</v>
@@ -20438,17 +20435,17 @@
         <v>2010</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F135" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G135" s="5"/>
       <c r="H135" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I135" s="8">
         <v>2650</v>
@@ -20457,7 +20454,7 @@
         <v>2400</v>
       </c>
       <c r="K135" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L135" s="8">
         <v>2350</v>
@@ -20477,17 +20474,17 @@
         <v>2011</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F136" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G136" s="5"/>
       <c r="H136" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I136" s="8">
         <v>2650</v>
@@ -20496,7 +20493,7 @@
         <v>2400</v>
       </c>
       <c r="K136" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L136" s="8">
         <v>2350</v>
@@ -20516,17 +20513,17 @@
         <v>2011</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F137" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G137" s="5"/>
       <c r="H137" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I137" s="8">
         <v>2650</v>
@@ -20535,7 +20532,7 @@
         <v>2400</v>
       </c>
       <c r="K137" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L137" s="8">
         <v>2350</v>
@@ -20555,17 +20552,17 @@
         <v>2011</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F138" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G138" s="5"/>
       <c r="H138" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I138" s="8">
         <v>2650</v>
@@ -20574,7 +20571,7 @@
         <v>2400</v>
       </c>
       <c r="K138" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L138" s="8">
         <v>2350</v>
@@ -20594,17 +20591,17 @@
         <v>1995</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F139" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G139" s="5"/>
       <c r="H139" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I139" s="8">
         <v>1750</v>
@@ -20613,7 +20610,7 @@
         <v>1550</v>
       </c>
       <c r="K139" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L139" s="8">
         <v>1650</v>
@@ -20633,17 +20630,17 @@
         <v>1995</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F140" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G140" s="5"/>
       <c r="H140" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I140" s="8">
         <v>1750</v>
@@ -20652,7 +20649,7 @@
         <v>1550</v>
       </c>
       <c r="K140" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L140" s="8">
         <v>1650</v>
@@ -20672,17 +20669,17 @@
         <v>1996</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F141" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G141" s="5"/>
       <c r="H141" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I141" s="8">
         <v>1750</v>
@@ -20691,7 +20688,7 @@
         <v>1550</v>
       </c>
       <c r="K141" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L141" s="8">
         <v>1650</v>
@@ -20711,17 +20708,17 @@
         <v>1996</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F142" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G142" s="5"/>
       <c r="H142" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I142" s="8">
         <v>1750</v>
@@ -20730,7 +20727,7 @@
         <v>1550</v>
       </c>
       <c r="K142" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L142" s="8">
         <v>1650</v>
@@ -20750,17 +20747,17 @@
         <v>1997</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F143" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G143" s="5"/>
       <c r="H143" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I143" s="8">
         <v>1750</v>
@@ -20769,7 +20766,7 @@
         <v>1550</v>
       </c>
       <c r="K143" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L143" s="8">
         <v>1650</v>
@@ -20789,17 +20786,17 @@
         <v>1997</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F144" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G144" s="5"/>
       <c r="H144" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I144" s="8">
         <v>1750</v>
@@ -20808,7 +20805,7 @@
         <v>1550</v>
       </c>
       <c r="K144" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L144" s="8">
         <v>1650</v>
@@ -20828,17 +20825,17 @@
         <v>1998</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F145" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G145" s="5"/>
       <c r="H145" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I145" s="8">
         <v>1750</v>
@@ -20847,7 +20844,7 @@
         <v>1550</v>
       </c>
       <c r="K145" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L145" s="8">
         <v>1650</v>
@@ -20867,17 +20864,17 @@
         <v>1998</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F146" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G146" s="5"/>
       <c r="H146" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I146" s="8">
         <v>1750</v>
@@ -20886,7 +20883,7 @@
         <v>1550</v>
       </c>
       <c r="K146" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L146" s="8">
         <v>1650</v>
@@ -20906,17 +20903,17 @@
         <v>1999</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F147" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G147" s="5"/>
       <c r="H147" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I147" s="8">
         <v>1750</v>
@@ -20925,7 +20922,7 @@
         <v>1550</v>
       </c>
       <c r="K147" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L147" s="8">
         <v>1650</v>
@@ -20945,17 +20942,17 @@
         <v>1999</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F148" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G148" s="5"/>
       <c r="H148" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I148" s="8">
         <v>1750</v>
@@ -20964,7 +20961,7 @@
         <v>1550</v>
       </c>
       <c r="K148" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L148" s="8">
         <v>1650</v>
@@ -20984,17 +20981,17 @@
         <v>2000</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F149" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G149" s="5"/>
       <c r="H149" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I149" s="8">
         <v>1750</v>
@@ -21003,7 +21000,7 @@
         <v>1550</v>
       </c>
       <c r="K149" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L149" s="8">
         <v>1650</v>
@@ -21023,17 +21020,17 @@
         <v>2000</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F150" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G150" s="5"/>
       <c r="H150" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I150" s="8">
         <v>1750</v>
@@ -21042,7 +21039,7 @@
         <v>1550</v>
       </c>
       <c r="K150" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L150" s="8">
         <v>1650</v>
@@ -21075,17 +21072,17 @@
         <v>2001</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F151" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G151" s="5"/>
       <c r="H151" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I151" s="8">
         <v>1750</v>
@@ -21094,7 +21091,7 @@
         <v>1550</v>
       </c>
       <c r="K151" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L151" s="8">
         <v>1650</v>
@@ -21114,17 +21111,17 @@
         <v>2001</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F152" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G152" s="5"/>
       <c r="H152" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I152" s="8">
         <v>1750</v>
@@ -21133,7 +21130,7 @@
         <v>1550</v>
       </c>
       <c r="K152" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L152" s="8">
         <v>1650</v>
@@ -21153,17 +21150,17 @@
         <v>2002</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F153" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G153" s="5"/>
       <c r="H153" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I153" s="8">
         <v>1750</v>
@@ -21172,7 +21169,7 @@
         <v>1550</v>
       </c>
       <c r="K153" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L153" s="8">
         <v>1650</v>
@@ -21192,17 +21189,17 @@
         <v>2002</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F154" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G154" s="5"/>
       <c r="H154" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I154" s="8">
         <v>1750</v>
@@ -21211,7 +21208,7 @@
         <v>1550</v>
       </c>
       <c r="K154" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L154" s="8">
         <v>1650</v>
@@ -21231,17 +21228,17 @@
         <v>2003</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F155" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G155" s="5"/>
       <c r="H155" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I155" s="8">
         <v>1750</v>
@@ -21250,7 +21247,7 @@
         <v>1550</v>
       </c>
       <c r="K155" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L155" s="8">
         <v>1650</v>
@@ -21270,17 +21267,17 @@
         <v>2003</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F156" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G156" s="5"/>
       <c r="H156" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I156" s="8">
         <v>1750</v>
@@ -21289,7 +21286,7 @@
         <v>1550</v>
       </c>
       <c r="K156" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L156" s="8">
         <v>1650</v>
@@ -21309,17 +21306,17 @@
         <v>2004</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F157" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G157" s="5"/>
       <c r="H157" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I157" s="8">
         <v>1750</v>
@@ -21328,7 +21325,7 @@
         <v>1550</v>
       </c>
       <c r="K157" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L157" s="8">
         <v>1650</v>
@@ -21348,17 +21345,17 @@
         <v>2004</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F158" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G158" s="5"/>
       <c r="H158" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I158" s="8">
         <v>1750</v>
@@ -21367,7 +21364,7 @@
         <v>1550</v>
       </c>
       <c r="K158" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L158" s="8">
         <v>1650</v>
@@ -21387,17 +21384,17 @@
         <v>2005</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F159" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G159" s="5"/>
       <c r="H159" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I159" s="8">
         <v>1750</v>
@@ -21406,7 +21403,7 @@
         <v>1550</v>
       </c>
       <c r="K159" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L159" s="8">
         <v>1650</v>
@@ -21426,17 +21423,17 @@
         <v>2005</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F160" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G160" s="5"/>
       <c r="H160" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I160" s="8">
         <v>1750</v>
@@ -21445,7 +21442,7 @@
         <v>1550</v>
       </c>
       <c r="K160" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L160" s="8">
         <v>1650</v>
@@ -21465,17 +21462,17 @@
         <v>2004</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F161" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G161" s="5"/>
       <c r="H161" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I161" s="8">
         <v>1750</v>
@@ -21484,7 +21481,7 @@
         <v>1550</v>
       </c>
       <c r="K161" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L161" s="8">
         <v>1650</v>
@@ -21504,17 +21501,17 @@
         <v>2004</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F162" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G162" s="5"/>
       <c r="H162" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I162" s="8">
         <v>1750</v>
@@ -21523,7 +21520,7 @@
         <v>1550</v>
       </c>
       <c r="K162" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L162" s="8">
         <v>1650</v>
@@ -21543,17 +21540,17 @@
         <v>2005</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F163" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G163" s="5"/>
       <c r="H163" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I163" s="8">
         <v>1750</v>
@@ -21562,7 +21559,7 @@
         <v>1550</v>
       </c>
       <c r="K163" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L163" s="8">
         <v>1650</v>
@@ -21582,17 +21579,17 @@
         <v>2005</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F164" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G164" s="5"/>
       <c r="H164" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I164" s="8">
         <v>3650</v>
@@ -21601,7 +21598,7 @@
         <v>3350</v>
       </c>
       <c r="K164" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L164" s="8">
         <v>2750</v>
@@ -21621,17 +21618,17 @@
         <v>2006</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F165" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G165" s="5"/>
       <c r="H165" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I165" s="8">
         <v>1750</v>
@@ -21640,7 +21637,7 @@
         <v>1550</v>
       </c>
       <c r="K165" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L165" s="8">
         <v>1650</v>
@@ -21660,17 +21657,17 @@
         <v>2006</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F166" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G166" s="5"/>
       <c r="H166" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I166" s="8">
         <v>3650</v>
@@ -21679,7 +21676,7 @@
         <v>3350</v>
       </c>
       <c r="K166" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L166" s="8">
         <v>2750</v>
@@ -21699,17 +21696,17 @@
         <v>2007</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F167" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G167" s="6"/>
       <c r="H167" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I167" s="11">
         <v>3650</v>
@@ -21718,7 +21715,7 @@
         <v>3360</v>
       </c>
       <c r="K167" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L167" s="11">
         <v>3250</v>
@@ -21751,17 +21748,17 @@
         <v>2007</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F168" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G168" s="6"/>
       <c r="H168" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I168" s="11">
         <v>3650</v>
@@ -21770,7 +21767,7 @@
         <v>3360</v>
       </c>
       <c r="K168" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L168" s="11">
         <v>3250</v>
@@ -21790,17 +21787,17 @@
         <v>1995</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F169" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G169" s="5"/>
       <c r="H169" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I169" s="8">
         <v>1750</v>
@@ -21809,7 +21806,7 @@
         <v>1550</v>
       </c>
       <c r="K169" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L169" s="8">
         <v>1650</v>
@@ -21829,17 +21826,17 @@
         <v>1995</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F170" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G170" s="5"/>
       <c r="H170" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I170" s="8">
         <v>1750</v>
@@ -21848,7 +21845,7 @@
         <v>1550</v>
       </c>
       <c r="K170" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L170" s="8">
         <v>1650</v>
@@ -21868,17 +21865,17 @@
         <v>1995</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F171" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G171" s="5"/>
       <c r="H171" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I171" s="8">
         <v>1750</v>
@@ -21887,7 +21884,7 @@
         <v>1550</v>
       </c>
       <c r="K171" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L171" s="8">
         <v>1650</v>
@@ -21907,17 +21904,17 @@
         <v>1996</v>
       </c>
       <c r="D172" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E172" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F172" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G172" s="5"/>
       <c r="H172" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I172" s="8">
         <v>1750</v>
@@ -21926,7 +21923,7 @@
         <v>1550</v>
       </c>
       <c r="K172" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L172" s="8">
         <v>1650</v>
@@ -21946,17 +21943,17 @@
         <v>1996</v>
       </c>
       <c r="D173" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E173" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F173" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G173" s="5"/>
       <c r="H173" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I173" s="8">
         <v>1750</v>
@@ -21965,7 +21962,7 @@
         <v>1550</v>
       </c>
       <c r="K173" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L173" s="8">
         <v>1650</v>
@@ -21985,17 +21982,17 @@
         <v>1997</v>
       </c>
       <c r="D174" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E174" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F174" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G174" s="5"/>
       <c r="H174" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I174" s="8">
         <v>1750</v>
@@ -22004,7 +22001,7 @@
         <v>1550</v>
       </c>
       <c r="K174" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L174" s="8">
         <v>1650</v>
@@ -22024,17 +22021,17 @@
         <v>1997</v>
       </c>
       <c r="D175" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E175" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F175" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G175" s="5"/>
       <c r="H175" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I175" s="8">
         <v>1750</v>
@@ -22043,7 +22040,7 @@
         <v>1550</v>
       </c>
       <c r="K175" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L175" s="8">
         <v>1650</v>
@@ -22063,17 +22060,17 @@
         <v>1998</v>
       </c>
       <c r="D176" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F176" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G176" s="5"/>
       <c r="H176" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I176" s="8">
         <v>1750</v>
@@ -22082,7 +22079,7 @@
         <v>1550</v>
       </c>
       <c r="K176" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L176" s="8">
         <v>1650</v>
@@ -22102,17 +22099,17 @@
         <v>1998</v>
       </c>
       <c r="D177" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F177" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G177" s="5"/>
       <c r="H177" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I177" s="8">
         <v>1750</v>
@@ -22121,7 +22118,7 @@
         <v>1550</v>
       </c>
       <c r="K177" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L177" s="8">
         <v>1650</v>
@@ -22141,17 +22138,17 @@
         <v>1999</v>
       </c>
       <c r="D178" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F178" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G178" s="5"/>
       <c r="H178" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I178" s="8">
         <v>1750</v>
@@ -22160,7 +22157,7 @@
         <v>1550</v>
       </c>
       <c r="K178" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L178" s="8">
         <v>1650</v>
@@ -22180,17 +22177,17 @@
         <v>1999</v>
       </c>
       <c r="D179" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F179" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G179" s="5"/>
       <c r="H179" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I179" s="8">
         <v>1750</v>
@@ -22199,7 +22196,7 @@
         <v>1550</v>
       </c>
       <c r="K179" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L179" s="8">
         <v>1650</v>
@@ -22219,17 +22216,17 @@
         <v>2000</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F180" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G180" s="5"/>
       <c r="H180" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I180" s="8">
         <v>1750</v>
@@ -22238,7 +22235,7 @@
         <v>1550</v>
       </c>
       <c r="K180" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L180" s="8">
         <v>1650</v>
@@ -22258,17 +22255,17 @@
         <v>2000</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F181" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G181" s="5"/>
       <c r="H181" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I181" s="8">
         <v>1750</v>
@@ -22277,7 +22274,7 @@
         <v>1550</v>
       </c>
       <c r="K181" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L181" s="8">
         <v>1650</v>
@@ -22297,17 +22294,17 @@
         <v>2000</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F182" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G182" s="5"/>
       <c r="H182" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I182" s="8">
         <v>1750</v>
@@ -22316,7 +22313,7 @@
         <v>1550</v>
       </c>
       <c r="K182" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L182" s="8">
         <v>1650</v>
@@ -22336,17 +22333,17 @@
         <v>2000</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F183" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G183" s="5"/>
       <c r="H183" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I183" s="8">
         <v>1750</v>
@@ -22355,7 +22352,7 @@
         <v>1550</v>
       </c>
       <c r="K183" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L183" s="8">
         <v>1650</v>
@@ -22375,17 +22372,17 @@
         <v>2001</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F184" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G184" s="5"/>
       <c r="H184" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I184" s="8">
         <v>1750</v>
@@ -22394,7 +22391,7 @@
         <v>1550</v>
       </c>
       <c r="K184" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L184" s="8">
         <v>1650</v>
@@ -22427,17 +22424,17 @@
         <v>2001</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F185" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G185" s="5"/>
       <c r="H185" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I185" s="8">
         <v>1750</v>
@@ -22446,7 +22443,7 @@
         <v>1550</v>
       </c>
       <c r="K185" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L185" s="8">
         <v>1650</v>
@@ -22466,17 +22463,17 @@
         <v>2001</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F186" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G186" s="5"/>
       <c r="H186" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I186" s="8">
         <v>1750</v>
@@ -22485,7 +22482,7 @@
         <v>1550</v>
       </c>
       <c r="K186" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L186" s="8">
         <v>1650</v>
@@ -22505,17 +22502,17 @@
         <v>2002</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F187" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G187" s="5"/>
       <c r="H187" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I187" s="8">
         <v>1750</v>
@@ -22524,7 +22521,7 @@
         <v>1550</v>
       </c>
       <c r="K187" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L187" s="8">
         <v>1650</v>
@@ -22544,17 +22541,17 @@
         <v>2002</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F188" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G188" s="5"/>
       <c r="H188" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I188" s="8">
         <v>1750</v>
@@ -22563,7 +22560,7 @@
         <v>1550</v>
       </c>
       <c r="K188" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L188" s="8">
         <v>1650</v>
@@ -22583,17 +22580,17 @@
         <v>2002</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F189" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G189" s="5"/>
       <c r="H189" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I189" s="8">
         <v>1750</v>
@@ -22602,7 +22599,7 @@
         <v>1550</v>
       </c>
       <c r="K189" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L189" s="8">
         <v>1650</v>
@@ -22622,17 +22619,17 @@
         <v>2003</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F190" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G190" s="5"/>
       <c r="H190" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I190" s="8">
         <v>1750</v>
@@ -22641,7 +22638,7 @@
         <v>1550</v>
       </c>
       <c r="K190" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L190" s="8">
         <v>1650</v>
@@ -22661,17 +22658,17 @@
         <v>2003</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F191" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G191" s="5"/>
       <c r="H191" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I191" s="8">
         <v>1750</v>
@@ -22680,7 +22677,7 @@
         <v>1550</v>
       </c>
       <c r="K191" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L191" s="8">
         <v>1650</v>
@@ -22700,17 +22697,17 @@
         <v>2004</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F192" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G192" s="5"/>
       <c r="H192" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I192" s="8">
         <v>1750</v>
@@ -22719,7 +22716,7 @@
         <v>1550</v>
       </c>
       <c r="K192" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L192" s="8">
         <v>1650</v>
@@ -22739,17 +22736,17 @@
         <v>2004</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F193" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G193" s="5"/>
       <c r="H193" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I193" s="8">
         <v>1750</v>
@@ -22758,7 +22755,7 @@
         <v>1550</v>
       </c>
       <c r="K193" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L193" s="8">
         <v>1650</v>
@@ -22778,17 +22775,17 @@
         <v>2002</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F194" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G194" s="5"/>
       <c r="H194" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I194" s="8">
         <v>1750</v>
@@ -22797,7 +22794,7 @@
         <v>1550</v>
       </c>
       <c r="K194" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L194" s="8">
         <v>1650</v>
@@ -22817,17 +22814,17 @@
         <v>2002</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F195" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G195" s="5"/>
       <c r="H195" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I195" s="8">
         <v>1750</v>
@@ -22836,7 +22833,7 @@
         <v>1550</v>
       </c>
       <c r="K195" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L195" s="8">
         <v>1650</v>
@@ -22856,17 +22853,17 @@
         <v>2003</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F196" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G196" s="5"/>
       <c r="H196" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I196" s="8">
         <v>1750</v>
@@ -22875,7 +22872,7 @@
         <v>1550</v>
       </c>
       <c r="K196" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L196" s="8">
         <v>1650</v>
@@ -22895,17 +22892,17 @@
         <v>2004</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F197" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G197" s="5"/>
       <c r="H197" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I197" s="8">
         <v>1750</v>
@@ -22914,7 +22911,7 @@
         <v>1550</v>
       </c>
       <c r="K197" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L197" s="8">
         <v>1650</v>
@@ -22934,17 +22931,17 @@
         <v>2004</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F198" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G198" s="7"/>
       <c r="H198" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I198" s="8">
         <v>1850</v>
@@ -22953,7 +22950,7 @@
         <v>1680</v>
       </c>
       <c r="K198" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L198" s="8">
         <v>1650</v>
@@ -22973,17 +22970,17 @@
         <v>2005</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F199" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G199" s="5"/>
       <c r="H199" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I199" s="8">
         <v>1750</v>
@@ -22992,7 +22989,7 @@
         <v>1550</v>
       </c>
       <c r="K199" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L199" s="8">
         <v>1650</v>
@@ -23012,17 +23009,17 @@
         <v>2005</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F200" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G200" s="7"/>
       <c r="H200" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I200" s="8">
         <v>1850</v>
@@ -23031,7 +23028,7 @@
         <v>1700</v>
       </c>
       <c r="K200" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L200" s="8">
         <v>1650</v>
@@ -23051,17 +23048,17 @@
         <v>2006</v>
       </c>
       <c r="D201" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F201" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G201" s="7"/>
       <c r="H201" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I201" s="8">
         <v>1850</v>
@@ -23070,7 +23067,7 @@
         <v>1700</v>
       </c>
       <c r="K201" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L201" s="8">
         <v>1650</v>
@@ -23103,17 +23100,17 @@
         <v>2006</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F202" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G202" s="7"/>
       <c r="H202" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I202" s="8">
         <v>1850</v>
@@ -23122,7 +23119,7 @@
         <v>1700</v>
       </c>
       <c r="K202" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L202" s="8">
         <v>1650</v>
@@ -23142,17 +23139,17 @@
         <v>2007</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F203" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G203" s="7"/>
       <c r="H203" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I203" s="8">
         <v>1850</v>
@@ -23161,7 +23158,7 @@
         <v>1700</v>
       </c>
       <c r="K203" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L203" s="8">
         <v>1650</v>
@@ -23181,17 +23178,17 @@
         <v>1995</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F204" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G204" s="7"/>
       <c r="H204" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I204" s="8">
         <v>1850</v>
@@ -23200,7 +23197,7 @@
         <v>1700</v>
       </c>
       <c r="K204" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L204" s="8">
         <v>1650</v>
@@ -23220,17 +23217,17 @@
         <v>1995</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F205" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G205" s="7"/>
       <c r="H205" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I205" s="8">
         <v>1850</v>
@@ -23239,7 +23236,7 @@
         <v>1700</v>
       </c>
       <c r="K205" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L205" s="8">
         <v>1650</v>
@@ -23259,17 +23256,17 @@
         <v>1996</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F206" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G206" s="7"/>
       <c r="H206" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I206" s="8">
         <v>1850</v>
@@ -23278,7 +23275,7 @@
         <v>1700</v>
       </c>
       <c r="K206" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L206" s="8">
         <v>1650</v>
@@ -23298,17 +23295,17 @@
         <v>1996</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F207" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G207" s="7"/>
       <c r="H207" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I207" s="8">
         <v>1850</v>
@@ -23317,7 +23314,7 @@
         <v>1700</v>
       </c>
       <c r="K207" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L207" s="8">
         <v>1650</v>
@@ -23337,17 +23334,17 @@
         <v>1997</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F208" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G208" s="7"/>
       <c r="H208" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I208" s="8">
         <v>1850</v>
@@ -23356,7 +23353,7 @@
         <v>1700</v>
       </c>
       <c r="K208" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L208" s="8">
         <v>1650</v>
@@ -23376,17 +23373,17 @@
         <v>1997</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F209" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G209" s="7"/>
       <c r="H209" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I209" s="8">
         <v>1850</v>
@@ -23395,7 +23392,7 @@
         <v>1700</v>
       </c>
       <c r="K209" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L209" s="8">
         <v>1650</v>
@@ -23415,17 +23412,17 @@
         <v>1998</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F210" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G210" s="7"/>
       <c r="H210" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I210" s="8">
         <v>1850</v>
@@ -23434,7 +23431,7 @@
         <v>1700</v>
       </c>
       <c r="K210" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L210" s="8">
         <v>1650</v>
@@ -23454,17 +23451,17 @@
         <v>1999</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F211" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G211" s="7"/>
       <c r="H211" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I211" s="8">
         <v>1850</v>
@@ -23473,7 +23470,7 @@
         <v>1700</v>
       </c>
       <c r="K211" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L211" s="8">
         <v>1650</v>
@@ -23493,17 +23490,17 @@
         <v>1990</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F212" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G212" s="7"/>
       <c r="H212" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I212" s="8">
         <v>1850</v>
@@ -23512,7 +23509,7 @@
         <v>1700</v>
       </c>
       <c r="K212" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L212" s="8">
         <v>1650</v>
@@ -23532,17 +23529,17 @@
         <v>1990</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F213" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G213" s="7"/>
       <c r="H213" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I213" s="8">
         <v>1850</v>
@@ -23551,7 +23548,7 @@
         <v>1700</v>
       </c>
       <c r="K213" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L213" s="8">
         <v>1650</v>
@@ -23571,17 +23568,17 @@
         <v>1990</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F214" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G214" s="7"/>
       <c r="H214" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I214" s="8">
         <v>1850</v>
@@ -23590,7 +23587,7 @@
         <v>1700</v>
       </c>
       <c r="K214" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L214" s="8">
         <v>1650</v>
@@ -23610,17 +23607,17 @@
         <v>1991</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F215" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G215" s="7"/>
       <c r="H215" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I215" s="8">
         <v>1850</v>
@@ -23629,7 +23626,7 @@
         <v>1700</v>
       </c>
       <c r="K215" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L215" s="8">
         <v>1650</v>
@@ -23649,17 +23646,17 @@
         <v>1991</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F216" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G216" s="7"/>
       <c r="H216" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I216" s="8">
         <v>1850</v>
@@ -23668,7 +23665,7 @@
         <v>1700</v>
       </c>
       <c r="K216" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L216" s="8">
         <v>1650</v>
@@ -23688,17 +23685,17 @@
         <v>1991</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F217" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G217" s="7"/>
       <c r="H217" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I217" s="8">
         <v>1850</v>
@@ -23707,7 +23704,7 @@
         <v>1700</v>
       </c>
       <c r="K217" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L217" s="8">
         <v>1650</v>
@@ -23727,17 +23724,17 @@
         <v>1992</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F218" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G218" s="7"/>
       <c r="H218" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I218" s="8">
         <v>1850</v>
@@ -23746,7 +23743,7 @@
         <v>1700</v>
       </c>
       <c r="K218" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L218" s="8">
         <v>1650</v>
@@ -23779,17 +23776,17 @@
         <v>1992</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F219" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G219" s="7"/>
       <c r="H219" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I219" s="8">
         <v>1850</v>
@@ -23798,7 +23795,7 @@
         <v>1700</v>
       </c>
       <c r="K219" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L219" s="8">
         <v>1650</v>
@@ -23818,17 +23815,17 @@
         <v>1993</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F220" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G220" s="7"/>
       <c r="H220" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I220" s="8">
         <v>1850</v>
@@ -23837,7 +23834,7 @@
         <v>1700</v>
       </c>
       <c r="K220" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L220" s="8">
         <v>1650</v>
@@ -23857,17 +23854,17 @@
         <v>1993</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F221" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G221" s="7"/>
       <c r="H221" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I221" s="8">
         <v>1850</v>
@@ -23876,7 +23873,7 @@
         <v>1700</v>
       </c>
       <c r="K221" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L221" s="8">
         <v>1650</v>
@@ -23896,17 +23893,17 @@
         <v>1994</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F222" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G222" s="7"/>
       <c r="H222" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I222" s="8">
         <v>1850</v>
@@ -23915,7 +23912,7 @@
         <v>1700</v>
       </c>
       <c r="K222" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L222" s="8">
         <v>1650</v>
@@ -23935,17 +23932,17 @@
         <v>1994</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F223" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G223" s="7"/>
       <c r="H223" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I223" s="8">
         <v>1850</v>
@@ -23954,7 +23951,7 @@
         <v>1700</v>
       </c>
       <c r="K223" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L223" s="8">
         <v>1650</v>
@@ -23974,17 +23971,17 @@
         <v>1995</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F224" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G224" s="7"/>
       <c r="H224" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I224" s="8">
         <v>1850</v>
@@ -23993,7 +23990,7 @@
         <v>1700</v>
       </c>
       <c r="K224" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L224" s="8">
         <v>1650</v>
@@ -24013,17 +24010,17 @@
         <v>1995</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F225" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G225" s="7"/>
       <c r="H225" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I225" s="8">
         <v>1850</v>
@@ -24032,7 +24029,7 @@
         <v>1700</v>
       </c>
       <c r="K225" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L225" s="8">
         <v>1650</v>
@@ -24052,17 +24049,17 @@
         <v>1996</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F226" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G226" s="7"/>
       <c r="H226" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I226" s="8">
         <v>1850</v>
@@ -24071,7 +24068,7 @@
         <v>1700</v>
       </c>
       <c r="K226" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L226" s="8">
         <v>1650</v>
@@ -24091,17 +24088,17 @@
         <v>1996</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F227" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G227" s="7"/>
       <c r="H227" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I227" s="8">
         <v>1850</v>
@@ -24110,7 +24107,7 @@
         <v>1700</v>
       </c>
       <c r="K227" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L227" s="8">
         <v>1650</v>
@@ -24130,17 +24127,17 @@
         <v>1997</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F228" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G228" s="7"/>
       <c r="H228" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I228" s="8">
         <v>1850</v>
@@ -24149,7 +24146,7 @@
         <v>1700</v>
       </c>
       <c r="K228" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L228" s="8">
         <v>1650</v>
@@ -24169,17 +24166,17 @@
         <v>1997</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F229" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G229" s="7"/>
       <c r="H229" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I229" s="8">
         <v>1850</v>
@@ -24188,7 +24185,7 @@
         <v>1700</v>
       </c>
       <c r="K229" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L229" s="8">
         <v>1650</v>
@@ -24208,17 +24205,17 @@
         <v>1998</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F230" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G230" s="7"/>
       <c r="H230" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I230" s="8">
         <v>1850</v>
@@ -24227,7 +24224,7 @@
         <v>1700</v>
       </c>
       <c r="K230" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L230" s="8">
         <v>1650</v>
@@ -24247,17 +24244,17 @@
         <v>1998</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F231" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G231" s="7"/>
       <c r="H231" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I231" s="8">
         <v>1850</v>
@@ -24266,7 +24263,7 @@
         <v>1700</v>
       </c>
       <c r="K231" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L231" s="8">
         <v>1650</v>
@@ -24286,17 +24283,17 @@
         <v>2005</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F232" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G232" s="7"/>
       <c r="H232" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I232" s="8">
         <v>1850</v>
@@ -24305,7 +24302,7 @@
         <v>1700</v>
       </c>
       <c r="K232" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L232" s="8">
         <v>1650</v>
@@ -24325,17 +24322,17 @@
         <v>2006</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F233" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G233" s="7"/>
       <c r="H233" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I233" s="8">
         <v>1850</v>
@@ -24344,7 +24341,7 @@
         <v>1700</v>
       </c>
       <c r="K233" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L233" s="8">
         <v>1650</v>
@@ -24364,17 +24361,17 @@
         <v>2006</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F234" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G234" s="7"/>
       <c r="H234" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I234" s="8">
         <v>1850</v>
@@ -24383,7 +24380,7 @@
         <v>1700</v>
       </c>
       <c r="K234" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L234" s="8">
         <v>1650</v>
@@ -24403,17 +24400,17 @@
         <v>2007</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F235" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G235" s="7"/>
       <c r="H235" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I235" s="8">
         <v>1850</v>
@@ -24422,7 +24419,7 @@
         <v>1700</v>
       </c>
       <c r="K235" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L235" s="8">
         <v>1650</v>
@@ -24455,17 +24452,17 @@
         <v>2007</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F236" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G236" s="7"/>
       <c r="H236" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I236" s="8">
         <v>1850</v>
@@ -24474,7 +24471,7 @@
         <v>1700</v>
       </c>
       <c r="K236" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L236" s="8">
         <v>1650</v>
@@ -24494,17 +24491,17 @@
         <v>2012</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F237" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G237" s="13"/>
       <c r="H237" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I237" s="15">
         <v>3850</v>
@@ -24513,7 +24510,7 @@
         <v>3650</v>
       </c>
       <c r="K237" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L237" s="15">
         <v>3350</v>
@@ -24533,17 +24530,17 @@
         <v>2013</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F238" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G238" s="13"/>
       <c r="H238" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I238" s="15">
         <v>3850</v>
@@ -24552,7 +24549,7 @@
         <v>3650</v>
       </c>
       <c r="K238" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L238" s="15">
         <v>3350</v>
@@ -24572,17 +24569,17 @@
         <v>2013</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F239" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G239" s="13"/>
       <c r="H239" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I239" s="15">
         <v>3850</v>
@@ -24591,7 +24588,7 @@
         <v>3650</v>
       </c>
       <c r="K239" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L239" s="15">
         <v>3350</v>
@@ -24611,17 +24608,17 @@
         <v>2014</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F240" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G240" s="13"/>
       <c r="H240" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I240" s="15">
         <v>3850</v>
@@ -24630,7 +24627,7 @@
         <v>3650</v>
       </c>
       <c r="K240" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L240" s="15">
         <v>3350</v>
@@ -24650,17 +24647,17 @@
         <v>2014</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F241" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G241" s="13"/>
       <c r="H241" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I241" s="15">
         <v>3850</v>
@@ -24669,7 +24666,7 @@
         <v>3650</v>
       </c>
       <c r="K241" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L241" s="15">
         <v>3350</v>
@@ -24689,17 +24686,17 @@
         <v>2015</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F242" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G242" s="13"/>
       <c r="H242" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I242" s="15">
         <v>3850</v>
@@ -24708,7 +24705,7 @@
         <v>3650</v>
       </c>
       <c r="K242" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L242" s="15">
         <v>3350</v>
@@ -24728,17 +24725,17 @@
         <v>2015</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F243" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G243" s="13"/>
       <c r="H243" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I243" s="15">
         <v>3850</v>
@@ -24747,7 +24744,7 @@
         <v>3650</v>
       </c>
       <c r="K243" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L243" s="15">
         <v>3350</v>
@@ -24767,17 +24764,17 @@
         <v>2016</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F244" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G244" s="13"/>
       <c r="H244" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I244" s="15">
         <v>3850</v>
@@ -24786,7 +24783,7 @@
         <v>3650</v>
       </c>
       <c r="K244" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L244" s="15">
         <v>3350</v>
@@ -24806,17 +24803,17 @@
         <v>2016</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F245" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G245" s="13"/>
       <c r="H245" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I245" s="15">
         <v>3850</v>
@@ -24825,7 +24822,7 @@
         <v>3650</v>
       </c>
       <c r="K245" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L245" s="15">
         <v>3350</v>
@@ -24845,17 +24842,17 @@
         <v>2017</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F246" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G246" s="13"/>
       <c r="H246" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I246" s="15">
         <v>3850</v>
@@ -24864,7 +24861,7 @@
         <v>3650</v>
       </c>
       <c r="K246" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L246" s="15">
         <v>3350</v>
